--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0810.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0810.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Desktop\Mid_project\project_Appian\Documents\2_작업문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{196F0DA3-F817-4501-A20B-4E3EBEFD59CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58F1308-B834-4545-9FE8-247645FFDA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29085" yWindow="915" windowWidth="25935" windowHeight="14310" activeTab="1" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -60,31 +60,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>회원 ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 PW</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 닉네임</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 이메일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>user_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 연락처</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -565,6 +541,30 @@
   </si>
   <si>
     <t>user_type변경</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,7 +646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,6 +671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,6 +1102,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,116 +1426,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F95B99-ADB4-40D4-87B6-70796DF2F7CE}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" ht="18" thickBot="1">
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="1" customFormat="1">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" s="1" customFormat="1">
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="1" customFormat="1">
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="1" customFormat="1">
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1537,25 +1545,25 @@
       <c r="I6" s="9"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="2:10" s="1" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" s="1" customFormat="1" ht="35.4" thickBot="1">
       <c r="B7" s="10"/>
       <c r="C7" s="44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1569,11 +1577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
   <dimension ref="B2:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="G1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
@@ -1587,223 +1595,233 @@
     <col min="12" max="12" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="1"/>
+    <col min="15" max="15" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:21" ht="18" thickBot="1">
       <c r="B2" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+    </row>
+    <row r="3" spans="2:21">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="U3" s="49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="D5" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="E5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="31" t="s">
+      <c r="O5" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>26</v>
-      </c>
       <c r="J6" s="33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
@@ -1812,17 +1830,17 @@
       <c r="R6" s="33"/>
       <c r="S6" s="36"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:21">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1833,7 +1851,7 @@
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1842,13 +1860,13 @@
       <c r="R7" s="9"/>
       <c r="S7" s="37"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:21">
       <c r="B8" s="4"/>
       <c r="C8" s="9"/>
       <c r="D8" s="18"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1857,7 +1875,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1866,7 +1884,7 @@
       <c r="R8" s="9"/>
       <c r="S8" s="37"/>
     </row>
-    <row r="9" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" ht="18" thickBot="1">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1879,7 +1897,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -1888,31 +1906,31 @@
       <c r="R9" s="11"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:21">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:21">
       <c r="B12" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1950,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
@@ -1940,88 +1958,88 @@
     <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="18" thickBot="1"/>
+    <row r="2" spans="2:5">
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="27">
         <v>1</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="24"/>
       <c r="C7" s="25">
         <v>2</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E7" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="18" thickBot="1">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2041,7 +2059,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
@@ -2054,98 +2072,98 @@
     <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="18" thickBot="1"/>
+    <row r="2" spans="2:9">
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H5" s="45">
         <v>45147</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="57.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="57.45" customHeight="1" thickBot="1">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2154,29 +2172,29 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="C16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2194,7 +2212,7 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
@@ -2204,100 +2222,100 @@
     <col min="7" max="7" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="18" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="46"/>
     </row>
-    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="18" thickBot="1">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2319,7 +2337,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
@@ -2329,102 +2347,102 @@
     <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="18" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="14">
         <v>45125</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="18" thickBot="1">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2446,7 +2464,7 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
@@ -2456,102 +2474,102 @@
     <col min="7" max="7" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="18" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="14">
         <v>45125</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="18" thickBot="1">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
